--- a/biology/Botanique/Croton_funckianus/Croton_funckianus.xlsx
+++ b/biology/Botanique/Croton_funckianus/Croton_funckianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Croton funckianus est une espèce de plantes à fleurs du genre Croton et de la famille des Euphorbiaceae, présente en Colombie.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est un arbre qui atteint 30 m de hauteur pour un tronc de 70 cm de diamètre[1].
-Appareil reproducteur
-La floraison a lieu entre août et octobre, et la fructification entre novembre et janvier[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre qui atteint 30 m de hauteur pour un tronc de 70 cm de diamètre.
 </t>
         </is>
       </c>
@@ -542,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colombie.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre août et octobre, et la fructification entre novembre et janvier.
 </t>
         </is>
       </c>
@@ -573,10 +594,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colombie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Croton_funckianus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croton_funckianus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cette espèce a pour synonyme :
 Croton draco var. hibisciformis Müll.Arg.
